--- a/Table/Table_xls/x循环任务/x循环任务-杀怪类分表.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-杀怪类分表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,9 +26,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -41,9 +39,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -56,9 +52,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -81,6 +75,9 @@
     <t>杀怪组</t>
   </si>
   <si>
+    <t>职业</t>
+  </si>
+  <si>
     <t>等级段min</t>
   </si>
   <si>
@@ -95,15 +92,18 @@
   <si>
     <t>怪物数量</t>
   </si>
-  <si>
-    <t>职业</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -111,49 +111,375 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,9 +487,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -171,41 +739,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -261,71 +876,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,25 +1153,25 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H28"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
+    <col min="4" max="5" width="10.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -568,770 +1183,776 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1626</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1627</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1628</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1629</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1630</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1626</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1631</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1627</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1628</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1629</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1630</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1631</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1">
-      <c r="A8" s="5">
+    <row r="8" s="2" customFormat="1" spans="1:8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>52</v>
       </c>
       <c r="F8" s="7">
         <v>1602</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1">
-      <c r="A9" s="5">
+    <row r="9" s="2" customFormat="1" spans="1:8">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <v>53</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>55</v>
       </c>
       <c r="F9" s="7">
         <v>1632</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1">
-      <c r="A10" s="5">
+    <row r="10" s="2" customFormat="1" spans="1:8">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <v>56</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>59</v>
       </c>
       <c r="F10" s="7">
         <v>1633</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1">
-      <c r="A11" s="5">
+    <row r="11" s="2" customFormat="1" spans="1:8">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>60</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>62</v>
       </c>
       <c r="F11" s="7">
         <v>1634</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1">
-      <c r="A12" s="5">
+    <row r="12" s="2" customFormat="1" spans="1:8">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>65</v>
       </c>
       <c r="F12" s="7">
         <v>1635</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1">
-      <c r="A13" s="5">
+    <row r="13" s="2" customFormat="1" spans="1:8">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>66</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>69</v>
       </c>
       <c r="F13" s="7">
         <v>1636</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1">
-      <c r="A14" s="8">
+    <row r="14" s="3" customFormat="1" spans="1:8">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <v>70</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>71</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1603</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1">
-      <c r="A15" s="8">
+    <row r="15" s="3" customFormat="1" spans="1:8">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
         <v>72</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="3">
         <v>73</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1637</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1">
-      <c r="A16" s="8">
+    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
         <v>74</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>75</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1638</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1">
-      <c r="A17" s="8">
+    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
         <v>76</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>77</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1639</v>
       </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1">
-      <c r="A18" s="8">
+    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
         <v>78</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3">
         <v>79</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>1640</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1">
-      <c r="A19" s="8">
+    <row r="19" s="3" customFormat="1" spans="1:8">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>80</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <v>81</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>1641</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1">
-      <c r="A20" s="8">
+    <row r="20" s="3" customFormat="1" spans="1:8">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <v>82</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3">
         <v>83</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>1604</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1">
-      <c r="A21" s="8">
+    <row r="21" s="3" customFormat="1" spans="1:8">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
         <v>84</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="3">
         <v>85</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1642</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1">
-      <c r="A22" s="8">
+    <row r="22" s="3" customFormat="1" spans="1:8">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <v>86</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3">
         <v>87</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1643</v>
       </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1">
-      <c r="A23" s="8">
+    <row r="23" s="3" customFormat="1" spans="1:8">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
         <v>88</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3">
         <v>89</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1644</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1">
-      <c r="A24" s="8">
+    <row r="24" s="3" customFormat="1" spans="1:8">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
         <v>90</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="3">
         <v>91</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1645</v>
       </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1">
-      <c r="A25" s="8">
+    <row r="25" s="3" customFormat="1" spans="1:8">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
         <v>92</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>93</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>1646</v>
       </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1">
-      <c r="A26" s="8">
+    <row r="26" s="3" customFormat="1" spans="1:8">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
         <v>94</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="3">
         <v>95</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>1647</v>
       </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1">
-      <c r="A27" s="8">
+    <row r="27" s="3" customFormat="1" spans="1:8">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
         <v>96</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="3">
         <v>97</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>1648</v>
       </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1">
-      <c r="A28" s="8">
+    <row r="28" s="3" customFormat="1" spans="1:8">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
         <v>98</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="3">
         <v>100</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1649</v>
       </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="1"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="1"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="1"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="1"/>
+      <c r="F46" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>